--- a/task_AppleStore.xlsx
+++ b/task_AppleStore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73395356f72537fe/Learning/IT/ZZZ.Cyber/FrontEnd/08_API/AppleStore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A2A06B-DA53-43B9-A554-3B36BD67EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{25A2A06B-DA53-43B9-A554-3B36BD67EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8867E126-1726-419F-9CFC-AE69EB8E9598}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANNING" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -68,79 +68,56 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>DEADLINE 20/08/2023</t>
-  </si>
-  <si>
-    <t>FARMSTEAD</t>
-  </si>
-  <si>
     <t>HEADER</t>
   </si>
   <si>
     <t>BANNER</t>
   </si>
   <si>
-    <t>FEATURES</t>
-  </si>
-  <si>
-    <t>SERVICES</t>
-  </si>
-  <si>
-    <t>REASONS</t>
-  </si>
-  <si>
-    <t>GALLERY</t>
-  </si>
-  <si>
-    <t>FEEDBACK</t>
-  </si>
-  <si>
     <t>Nguyễn Quang Mẫn</t>
   </si>
   <si>
     <t>Deadline</t>
   </si>
   <si>
-    <t>BACKTOTOP</t>
-  </si>
-  <si>
     <t>FOOTER</t>
   </si>
   <si>
-    <t>ABOUT</t>
-  </si>
-  <si>
-    <t>13/8/2023</t>
-  </si>
-  <si>
-    <t>14/8/2023</t>
-  </si>
-  <si>
-    <t>15/8/2023</t>
-  </si>
-  <si>
-    <t>17/8/2023</t>
-  </si>
-  <si>
-    <t>18/8/2023</t>
-  </si>
-  <si>
-    <t>20/8/2023</t>
-  </si>
-  <si>
-    <t>9 SECTION</t>
-  </si>
-  <si>
-    <t>95% vì không build được giống web mẫu khi scroll thì đổi màu BG</t>
+    <t>DEADLINE 15/10/2023</t>
+  </si>
+  <si>
+    <t>Huỳnh Minh Trí</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>ADMIN(UI)</t>
+  </si>
+  <si>
+    <t>ADMIN(JS)</t>
+  </si>
+  <si>
+    <t>CART(UI)</t>
+  </si>
+  <si>
+    <t>CART(JS)</t>
+  </si>
+  <si>
+    <t>14/10/2023</t>
+  </si>
+  <si>
+    <t>APPLE STORE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="171" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -202,15 +179,11 @@
       <charset val="163"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,12 +253,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -401,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -455,26 +422,34 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -766,10 +741,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -782,32 +757,32 @@
     <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.75" style="7" customWidth="1"/>
+    <col min="9" max="9" width="23.625" style="7" customWidth="1"/>
     <col min="10" max="10" width="61.25" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="26" width="7.625" style="4" customWidth="1"/>
     <col min="27" max="16384" width="12.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="19">
+      <c r="A1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="24">
         <f ca="1">TODAY()</f>
-        <v>45201</v>
-      </c>
-      <c r="J1" s="20">
+        <v>45204</v>
+      </c>
+      <c r="J1" s="19">
         <f ca="1">NOW()</f>
-        <v>45201.590583912039</v>
+        <v>45204.928428819447</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
@@ -818,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -844,123 +819,121 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45056</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45087</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45270</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45056</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45087</v>
       </c>
       <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45270</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H4" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45087</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45117</v>
       </c>
       <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45270</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H5" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45117</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45240</v>
       </c>
       <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45270</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H6" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J6" s="12"/>
     </row>
@@ -978,201 +951,142 @@
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>45115</v>
+        <v>44936</v>
       </c>
       <c r="C8" s="6">
-        <v>45115</v>
+        <v>44967</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45270</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6">
-        <v>45146</v>
+        <v>44967</v>
       </c>
       <c r="C9" s="6">
-        <v>45146</v>
+        <v>45026</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45270</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6">
-        <v>45146</v>
+        <v>45056</v>
       </c>
       <c r="C10" s="6">
-        <v>45146</v>
+        <v>45087</v>
       </c>
       <c r="D10" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45270</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H10" s="13">
-        <v>1</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
-        <v>45207</v>
+        <v>45087</v>
       </c>
       <c r="C11" s="6">
-        <v>45207</v>
+        <v>45240</v>
       </c>
       <c r="D11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45270</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H11" s="13">
-        <v>1</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6">
-        <v>45238</v>
-      </c>
-      <c r="C12" s="6">
-        <v>45238</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6">
-        <v>45268</v>
-      </c>
-      <c r="C13" s="6">
-        <v>45268</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D13 H4:H13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="H7 D3:D11">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="H3:H6">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/task_AppleStore.xlsx
+++ b/task_AppleStore.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73395356f72537fe/Learning/IT/ZZZ.Cyber/FrontEnd/08_API/AppleStore/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WanMan\OneDrive\Learning\IT\ZZZ.Cyber\FrontEnd\08_API\AppleStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{25A2A06B-DA53-43B9-A554-3B36BD67EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8867E126-1726-419F-9CFC-AE69EB8E9598}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D12932C-4C9B-49FC-A16C-5E422115E1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="171" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -427,13 +427,13 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,7 +744,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -764,25 +764,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
-      <c r="I1" s="24">
+      <c r="I1" s="22">
         <f ca="1">TODAY()</f>
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="J1" s="19">
         <f ca="1">NOW()</f>
-        <v>45204.928428819447</v>
+        <v>45205.073778356484</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>45087</v>
       </c>
       <c r="D10" s="13">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>10</v>

--- a/task_AppleStore.xlsx
+++ b/task_AppleStore.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WanMan\OneDrive\Learning\IT\ZZZ.Cyber\FrontEnd\08_API\AppleStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D12932C-4C9B-49FC-A16C-5E422115E1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="PLANNING" sheetId="1" r:id="rId1"/>
     <sheet name="LAYOUT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -108,18 +107,36 @@
   </si>
   <si>
     <t>APPLE STORE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Huỳnh Minh Trí  không làm, cũng không báo tiến độ công việc, nên ngày 21/10 em đã làm thay phần </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BANNER, FOOTER, ADMIN (UI).</t>
+    </r>
+  </si>
+  <si>
+    <t>Phần ADMIN (JS) chỉ mới xong phần render giao diện từ API, phần Delete bị lỗi CORS nên không xóa được sản phẩm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +199,13 @@
       <sz val="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -257,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -296,21 +320,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -364,11 +373,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -383,56 +446,65 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,55 +809,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="10" style="4" customWidth="1"/>
     <col min="5" max="5" width="24" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.8984375" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="61.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="26" width="7.625" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="12.625" style="4"/>
+    <col min="9" max="9" width="23.59765625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="61.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="7.59765625" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="12.59765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="21">
         <f ca="1">TODAY()</f>
-        <v>45205</v>
-      </c>
-      <c r="J1" s="19">
+        <v>45220</v>
+      </c>
+      <c r="J1" s="18">
         <f ca="1">NOW()</f>
-        <v>45205.073778356484</v>
+        <v>45220.976494907409</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -813,12 +885,12 @@
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6">
@@ -827,10 +899,10 @@
       <c r="C3" s="6">
         <v>45087</v>
       </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="6">
@@ -839,16 +911,18 @@
       <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="27" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6">
@@ -857,10 +931,10 @@
       <c r="C4" s="6">
         <v>45087</v>
       </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6">
@@ -869,16 +943,16 @@
       <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6">
@@ -887,10 +961,10 @@
       <c r="C5" s="6">
         <v>45117</v>
       </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="6">
@@ -899,16 +973,16 @@
       <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="6">
@@ -917,10 +991,10 @@
       <c r="C6" s="6">
         <v>45240</v>
       </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="6">
@@ -929,28 +1003,30 @@
       <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="24" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+    <row r="7" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
@@ -959,7 +1035,7 @@
       <c r="C8" s="6">
         <v>44967</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -971,16 +1047,16 @@
       <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="6">
@@ -989,7 +1065,7 @@
       <c r="C9" s="6">
         <v>45026</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1001,16 +1077,16 @@
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="6">
@@ -1019,8 +1095,8 @@
       <c r="C10" s="6">
         <v>45087</v>
       </c>
-      <c r="D10" s="13">
-        <v>0.9</v>
+      <c r="D10" s="12">
+        <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>10</v>
@@ -1031,16 +1107,16 @@
       <c r="G10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="6">
@@ -1049,8 +1125,8 @@
       <c r="C11" s="6">
         <v>45240</v>
       </c>
-      <c r="D11" s="13">
-        <v>0</v>
+      <c r="D11" s="12">
+        <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>10</v>
@@ -1061,18 +1137,19 @@
       <c r="G11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="J11" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J3:J5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="H7 D3:D11">
@@ -1096,14 +1173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
